--- a/data/trans_orig/P13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCFAE0F1-F94E-4791-86DA-F655989ABF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EF27D50-FE1C-48C3-94D9-B3A7B9C42C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3FC720DB-6889-43AD-967D-2D8232DFDAB7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4F6B18ED-38FB-4402-9DA0-7E04444277CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="646">
   <si>
     <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>65,42%</t>
   </si>
   <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
   </si>
   <si>
     <t>55,91%</t>
   </si>
   <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
   </si>
   <si>
     <t>60,09%</t>
   </si>
   <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
   </si>
   <si>
     <t>Sólo alguna vez</t>
@@ -107,1912 +107,1876 @@
     <t>15,54%</t>
   </si>
   <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>Algunas Veces</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>Casi Siempre</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2015 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
     <t>13,45%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>Algunas Veces</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>Casi Siempre</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2015 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>2,95%</t>
   </si>
 </sst>
 </file>
@@ -2424,7 +2388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11727E99-1182-4AFE-A2FC-8448AF38938E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC7B7A-6385-4DE4-BABF-572E86920DFC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2958,10 +2922,10 @@
         <v>74856</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>81</v>
@@ -3287,7 +3251,7 @@
         <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>63</v>
@@ -3296,13 +3260,13 @@
         <v>64222</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3281,13 @@
         <v>2624</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -3332,13 +3296,13 @@
         <v>12372</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -3347,13 +3311,13 @@
         <v>14996</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3332,13 @@
         <v>8093</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -3383,13 +3347,13 @@
         <v>6008</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -3398,13 +3362,13 @@
         <v>14101</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3436,13 @@
         <v>2589335</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>2292</v>
@@ -3487,28 +3451,28 @@
         <v>2342128</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>4825</v>
       </c>
       <c r="N22" s="7">
-        <v>4931462</v>
+        <v>4931463</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3487,13 @@
         <v>340744</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>445</v>
@@ -3538,13 +3502,13 @@
         <v>457059</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>784</v>
@@ -3553,13 +3517,13 @@
         <v>797803</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3538,13 @@
         <v>242053</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>404</v>
@@ -3589,13 +3553,13 @@
         <v>416118</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>646</v>
@@ -3604,13 +3568,13 @@
         <v>658172</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3589,13 @@
         <v>52519</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>92</v>
@@ -3640,13 +3604,13 @@
         <v>97013</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>143</v>
@@ -3655,13 +3619,13 @@
         <v>149532</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3640,13 @@
         <v>51891</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>64</v>
@@ -3691,13 +3655,13 @@
         <v>66880</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>113</v>
@@ -3706,13 +3670,13 @@
         <v>118771</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,7 +3718,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3768,7 +3732,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3787,7 +3751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5D4516-548F-41CD-A164-5820709F7CDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A63D7EE-1D36-4C2F-B560-156955FACF4E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3804,7 +3768,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3911,13 +3875,13 @@
         <v>572760</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>567</v>
@@ -3926,13 +3890,13 @@
         <v>610376</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
         <v>1105</v>
@@ -3941,13 +3905,13 @@
         <v>1183136</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3926,13 @@
         <v>185843</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H5" s="7">
         <v>247</v>
@@ -3977,13 +3941,13 @@
         <v>264109</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>419</v>
@@ -3992,13 +3956,13 @@
         <v>449952</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +3977,13 @@
         <v>145070</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H6" s="7">
         <v>245</v>
@@ -4028,13 +3992,13 @@
         <v>260754</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M6" s="7">
         <v>379</v>
@@ -4043,13 +4007,13 @@
         <v>405824</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,13 +4028,13 @@
         <v>39496</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H7" s="7">
         <v>112</v>
@@ -4079,13 +4043,13 @@
         <v>119225</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M7" s="7">
         <v>148</v>
@@ -4094,13 +4058,13 @@
         <v>158721</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4079,13 @@
         <v>30509</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>75</v>
@@ -4130,13 +4094,13 @@
         <v>82234</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>102</v>
@@ -4145,13 +4109,13 @@
         <v>112743</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4183,13 @@
         <v>1583700</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>1177</v>
@@ -4234,13 +4198,13 @@
         <v>1262211</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>2672</v>
@@ -4249,13 +4213,13 @@
         <v>2845910</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4234,13 @@
         <v>178900</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>192</v>
@@ -4285,13 +4249,13 @@
         <v>209486</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>365</v>
@@ -4300,13 +4264,13 @@
         <v>388387</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4285,13 @@
         <v>123665</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H12" s="7">
         <v>162</v>
@@ -4336,13 +4300,13 @@
         <v>173316</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M12" s="7">
         <v>277</v>
@@ -4351,13 +4315,13 @@
         <v>296981</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4336,13 @@
         <v>56883</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -4387,13 +4351,13 @@
         <v>74842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>123</v>
@@ -4402,13 +4366,13 @@
         <v>131725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,13 +4387,13 @@
         <v>18831</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -4438,13 +4402,13 @@
         <v>35994</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>277</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>50</v>
@@ -4453,13 +4417,13 @@
         <v>54825</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4491,13 @@
         <v>411224</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>332</v>
@@ -4542,13 +4506,13 @@
         <v>369559</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>709</v>
@@ -4557,13 +4521,13 @@
         <v>780783</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,13 +4542,13 @@
         <v>35397</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -4593,13 +4557,13 @@
         <v>46439</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -4608,13 +4572,13 @@
         <v>81837</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4593,13 @@
         <v>21339</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -4644,13 +4608,13 @@
         <v>26477</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -4659,13 +4623,13 @@
         <v>47816</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4644,13 @@
         <v>12287</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>307</v>
+        <v>139</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -4698,10 +4662,10 @@
         <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>307</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
@@ -4710,13 +4674,13 @@
         <v>23574</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4695,13 @@
         <v>934</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4746,13 +4710,13 @@
         <v>4868</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4761,13 +4725,13 @@
         <v>5802</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4799,13 @@
         <v>2567684</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>319</v>
+        <v>160</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H22" s="7">
         <v>2076</v>
@@ -4850,13 +4814,13 @@
         <v>2242146</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M22" s="7">
         <v>4486</v>
@@ -4865,13 +4829,13 @@
         <v>4809830</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4850,13 @@
         <v>400140</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>175</v>
+        <v>326</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H23" s="7">
         <v>482</v>
@@ -4901,13 +4865,13 @@
         <v>520035</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M23" s="7">
         <v>860</v>
@@ -4916,13 +4880,13 @@
         <v>920175</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4901,13 @@
         <v>290075</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H24" s="7">
         <v>430</v>
@@ -4952,13 +4916,13 @@
         <v>460547</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M24" s="7">
         <v>695</v>
@@ -4967,13 +4931,13 @@
         <v>750622</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +4952,13 @@
         <v>108666</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>347</v>
+        <v>269</v>
       </c>
       <c r="H25" s="7">
         <v>193</v>
@@ -5003,13 +4967,13 @@
         <v>205354</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M25" s="7">
         <v>292</v>
@@ -5018,13 +4982,13 @@
         <v>314020</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>351</v>
+        <v>49</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>352</v>
+        <v>53</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5003,13 @@
         <v>50275</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>355</v>
+        <v>52</v>
       </c>
       <c r="H26" s="7">
         <v>110</v>
@@ -5054,13 +5018,13 @@
         <v>123096</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>356</v>
+        <v>267</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M26" s="7">
         <v>157</v>
@@ -5069,13 +5033,13 @@
         <v>173371</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>351</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>90</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>221</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,7 +5095,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -5150,7 +5114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F9EA7B-B3CD-483C-884D-81CF55BDDF64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32470ACF-8BE0-4FAD-9A2F-820579488DBD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5167,7 +5131,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5274,13 +5238,13 @@
         <v>507755</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H4" s="7">
         <v>491</v>
@@ -5289,13 +5253,13 @@
         <v>535931</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="M4" s="7">
         <v>999</v>
@@ -5304,13 +5268,13 @@
         <v>1043686</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5289,13 @@
         <v>104797</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H5" s="7">
         <v>144</v>
@@ -5340,13 +5304,13 @@
         <v>161214</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>35</v>
+        <v>366</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M5" s="7">
         <v>252</v>
@@ -5355,13 +5319,13 @@
         <v>266011</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5340,13 @@
         <v>96550</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>377</v>
+        <v>252</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H6" s="7">
         <v>164</v>
@@ -5391,13 +5355,13 @@
         <v>189553</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="M6" s="7">
         <v>262</v>
@@ -5406,13 +5370,13 @@
         <v>286103</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,13 +5391,13 @@
         <v>27423</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>187</v>
+        <v>304</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H7" s="7">
         <v>63</v>
@@ -5442,13 +5406,13 @@
         <v>72345</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>129</v>
+        <v>383</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>388</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>91</v>
@@ -5457,13 +5421,13 @@
         <v>99768</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5442,13 @@
         <v>17822</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>392</v>
+        <v>102</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>394</v>
+        <v>273</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -5493,13 +5457,13 @@
         <v>33500</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>389</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M8" s="7">
         <v>48</v>
@@ -5508,13 +5472,13 @@
         <v>51322</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>397</v>
+        <v>274</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5546,13 @@
         <v>1685184</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>402</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>1437</v>
@@ -5597,13 +5561,13 @@
         <v>1477362</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="M10" s="7">
         <v>3023</v>
@@ -5612,13 +5576,13 @@
         <v>3162546</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5597,13 @@
         <v>247413</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>225</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="H11" s="7">
         <v>260</v>
@@ -5648,13 +5612,13 @@
         <v>275762</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="M11" s="7">
         <v>494</v>
@@ -5663,13 +5627,13 @@
         <v>523176</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>415</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5648,13 @@
         <v>83648</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="H12" s="7">
         <v>146</v>
@@ -5699,13 +5663,13 @@
         <v>164150</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="M12" s="7">
         <v>225</v>
@@ -5714,13 +5678,13 @@
         <v>247798</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5699,13 @@
         <v>29754</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>306</v>
+        <v>99</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>416</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -5750,13 +5714,13 @@
         <v>43939</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>100</v>
+        <v>418</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>316</v>
+        <v>419</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -5765,13 +5729,13 @@
         <v>73693</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>421</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>428</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,10 +5753,10 @@
         <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -5801,13 +5765,13 @@
         <v>26034</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>431</v>
+        <v>305</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="M14" s="7">
         <v>50</v>
@@ -5816,13 +5780,13 @@
         <v>55446</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>313</v>
+        <v>427</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5854,13 @@
         <v>451344</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="H16" s="7">
         <v>428</v>
@@ -5905,13 +5869,13 @@
         <v>444866</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="M16" s="7">
         <v>843</v>
@@ -5920,13 +5884,13 @@
         <v>896211</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5905,13 @@
         <v>62619</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -5956,13 +5920,13 @@
         <v>51852</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -5971,13 +5935,13 @@
         <v>114472</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +5956,13 @@
         <v>19754</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>455</v>
+        <v>391</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -6007,13 +5971,13 @@
         <v>31721</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>236</v>
+        <v>450</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -6022,13 +5986,13 @@
         <v>51474</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6007,13 @@
         <v>11193</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>461</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>56</v>
+        <v>455</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -6058,13 +6022,13 @@
         <v>12813</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>456</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>458</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
@@ -6073,13 +6037,13 @@
         <v>24006</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>464</v>
+        <v>88</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,13 +6058,13 @@
         <v>1976</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -6109,13 +6073,13 @@
         <v>6020</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>469</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -6124,13 +6088,13 @@
         <v>7996</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>472</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6162,13 @@
         <v>2644283</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="H22" s="7">
         <v>2356</v>
@@ -6213,28 +6177,28 @@
         <v>2458159</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="M22" s="7">
         <v>4865</v>
       </c>
       <c r="N22" s="7">
-        <v>5102443</v>
+        <v>5102442</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,13 +6213,13 @@
         <v>414829</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="H23" s="7">
         <v>454</v>
@@ -6264,13 +6228,13 @@
         <v>488829</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="M23" s="7">
         <v>853</v>
@@ -6279,13 +6243,13 @@
         <v>903658</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6264,13 @@
         <v>199952</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>491</v>
+        <v>230</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="H24" s="7">
         <v>340</v>
@@ -6315,13 +6279,13 @@
         <v>385424</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>495</v>
+        <v>261</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="M24" s="7">
         <v>534</v>
@@ -6330,13 +6294,13 @@
         <v>585375</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6315,13 @@
         <v>68370</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>500</v>
+        <v>96</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>184</v>
+        <v>491</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="H25" s="7">
         <v>114</v>
@@ -6366,13 +6330,13 @@
         <v>129097</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>126</v>
+        <v>494</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="M25" s="7">
         <v>178</v>
@@ -6381,13 +6345,13 @@
         <v>197467</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>93</v>
+        <v>497</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6366,13 @@
         <v>49211</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>506</v>
+        <v>348</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>279</v>
+        <v>499</v>
       </c>
       <c r="H26" s="7">
         <v>57</v>
@@ -6417,13 +6381,13 @@
         <v>65553</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>88</v>
+        <v>462</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="M26" s="7">
         <v>105</v>
@@ -6432,13 +6396,13 @@
         <v>114764</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>509</v>
+        <v>42</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,7 +6444,7 @@
         <v>6535</v>
       </c>
       <c r="N27" s="7">
-        <v>6903708</v>
+        <v>6903707</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -6494,7 +6458,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -6513,7 +6477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F57384-6A0E-4941-B43F-E9121BE2084D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415DE19B-4D08-4884-8BE0-3387C03C82F4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6530,7 +6494,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6637,13 +6601,13 @@
         <v>335081</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>513</v>
+        <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="H4" s="7">
         <v>673</v>
@@ -6652,13 +6616,13 @@
         <v>396710</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="M4" s="7">
         <v>1098</v>
@@ -6667,13 +6631,13 @@
         <v>731791</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,13 +6652,13 @@
         <v>63246</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>77</v>
+        <v>513</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="H5" s="7">
         <v>204</v>
@@ -6703,13 +6667,13 @@
         <v>118904</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="M5" s="7">
         <v>286</v>
@@ -6718,13 +6682,13 @@
         <v>182149</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6703,13 @@
         <v>74721</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -6754,13 +6718,13 @@
         <v>167737</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="M6" s="7">
         <v>370</v>
@@ -6769,13 +6733,13 @@
         <v>242458</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6754,13 @@
         <v>42697</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>540</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
@@ -6805,13 +6769,13 @@
         <v>80722</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="M7" s="7">
         <v>197</v>
@@ -6820,13 +6784,13 @@
         <v>123419</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6841,13 +6805,13 @@
         <v>24961</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>548</v>
+        <v>408</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="H8" s="7">
         <v>123</v>
@@ -6856,13 +6820,13 @@
         <v>68566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>424</v>
+        <v>541</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="M8" s="7">
         <v>159</v>
@@ -6871,13 +6835,13 @@
         <v>93527</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,13 +6909,13 @@
         <v>1725026</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="H10" s="7">
         <v>2077</v>
@@ -6960,13 +6924,13 @@
         <v>1580520</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="M10" s="7">
         <v>3615</v>
@@ -6975,13 +6939,13 @@
         <v>3305546</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>560</v>
+        <v>474</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6996,13 +6960,13 @@
         <v>189832</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="H11" s="7">
         <v>314</v>
@@ -7011,13 +6975,13 @@
         <v>320141</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>567</v>
+        <v>162</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="M11" s="7">
         <v>505</v>
@@ -7026,13 +6990,13 @@
         <v>509973</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7047,13 +7011,13 @@
         <v>160669</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>572</v>
+        <v>290</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>574</v>
+        <v>300</v>
       </c>
       <c r="H12" s="7">
         <v>368</v>
@@ -7062,13 +7026,13 @@
         <v>241986</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>575</v>
+        <v>266</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="M12" s="7">
         <v>540</v>
@@ -7077,13 +7041,13 @@
         <v>402656</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,13 +7062,13 @@
         <v>51519</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
@@ -7113,13 +7077,13 @@
         <v>68807</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>584</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>160</v>
@@ -7128,13 +7092,13 @@
         <v>120326</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7113,13 @@
         <v>32862</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>588</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>589</v>
+        <v>427</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>463</v>
+        <v>573</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -7164,13 +7128,13 @@
         <v>36414</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>592</v>
+        <v>416</v>
       </c>
       <c r="M14" s="7">
         <v>89</v>
@@ -7179,13 +7143,13 @@
         <v>69276</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7227,7 +7191,7 @@
         <v>4909</v>
       </c>
       <c r="N15" s="7">
-        <v>4407776</v>
+        <v>4407777</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7253,13 +7217,13 @@
         <v>559843</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="H16" s="7">
         <v>771</v>
@@ -7268,13 +7232,13 @@
         <v>556366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>598</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>582</v>
       </c>
       <c r="M16" s="7">
         <v>1332</v>
@@ -7283,13 +7247,13 @@
         <v>1116210</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,13 +7268,13 @@
         <v>42139</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>604</v>
+        <v>385</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>605</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>105</v>
@@ -7319,13 +7283,13 @@
         <v>74845</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>376</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>154</v>
@@ -7334,13 +7298,13 @@
         <v>116984</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7319,13 @@
         <v>44885</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="H18" s="7">
         <v>94</v>
@@ -7373,10 +7337,10 @@
         <v>82</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="M18" s="7">
         <v>136</v>
@@ -7385,13 +7349,13 @@
         <v>106530</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>256</v>
+        <v>598</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>247</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7406,13 +7370,13 @@
         <v>10416</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>601</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>570</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -7421,13 +7385,13 @@
         <v>12156</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>619</v>
+        <v>570</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -7436,13 +7400,13 @@
         <v>22572</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>462</v>
+        <v>311</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>621</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7457,13 +7421,13 @@
         <v>15755</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>456</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>275</v>
+        <v>605</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -7472,13 +7436,13 @@
         <v>8874</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>467</v>
+        <v>607</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>500</v>
+        <v>609</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -7487,13 +7451,13 @@
         <v>24629</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>624</v>
+        <v>575</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>305</v>
+        <v>610</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7561,13 +7525,13 @@
         <v>2619951</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>625</v>
+        <v>433</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="H22" s="7">
         <v>3521</v>
@@ -7576,13 +7540,13 @@
         <v>2533597</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>629</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="M22" s="7">
         <v>6045</v>
@@ -7591,13 +7555,13 @@
         <v>5153547</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7612,13 +7576,13 @@
         <v>295217</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>495</v>
+        <v>620</v>
       </c>
       <c r="H23" s="7">
         <v>623</v>
@@ -7627,13 +7591,13 @@
         <v>513890</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>637</v>
+        <v>177</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="M23" s="7">
         <v>945</v>
@@ -7642,13 +7606,13 @@
         <v>809107</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>641</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7663,13 +7627,13 @@
         <v>280276</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>642</v>
+        <v>171</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>643</v>
+        <v>87</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="H24" s="7">
         <v>739</v>
@@ -7678,13 +7642,13 @@
         <v>471368</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>412</v>
+        <v>626</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="M24" s="7">
         <v>1046</v>
@@ -7693,13 +7657,13 @@
         <v>751644</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>540</v>
+        <v>629</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>541</v>
+        <v>630</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7714,13 +7678,13 @@
         <v>104632</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>305</v>
+        <v>633</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>56</v>
+        <v>634</v>
       </c>
       <c r="H25" s="7">
         <v>266</v>
@@ -7729,13 +7693,13 @@
         <v>161685</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="M25" s="7">
         <v>388</v>
@@ -7744,13 +7708,13 @@
         <v>266317</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7765,13 +7729,13 @@
         <v>73578</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>455</v>
+        <v>640</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="H26" s="7">
         <v>194</v>
@@ -7780,13 +7744,13 @@
         <v>113854</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>316</v>
+        <v>419</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>655</v>
+        <v>492</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>80</v>
+        <v>643</v>
       </c>
       <c r="M26" s="7">
         <v>280</v>
@@ -7795,13 +7759,13 @@
         <v>187432</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>346</v>
+        <v>610</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7857,7 +7821,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EF27D50-FE1C-48C3-94D9-B3A7B9C42C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3BF2EBC-757B-4E96-9778-CC16F4A33988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4F6B18ED-38FB-4402-9DA0-7E04444277CD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B7E4742-A732-47D2-A12D-2D9C6B025C19}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="650">
   <si>
     <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1897 +77,1909 @@
     <t>65,42%</t>
   </si>
   <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
   </si>
   <si>
     <t>55,91%</t>
   </si>
   <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
   </si>
   <si>
     <t>60,09%</t>
   </si>
   <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>Sólo alguna vez</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>Algunas Veces</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>Casi Siempre</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2016 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
     <t>57,99%</t>
   </si>
   <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>Sólo alguna vez</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>Algunas Veces</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>Casi Siempre</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>5,73%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
   </si>
   <si>
     <t>12,71%</t>
   </si>
   <si>
-    <t>7,39%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2015 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
     <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
   </si>
   <si>
     <t>3,53%</t>
@@ -2388,7 +2400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC7B7A-6385-4DE4-BABF-572E86920DFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DE0E42-7627-4F92-A4CF-D208C69E52BE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2817,7 +2829,7 @@
         <v>1398</v>
       </c>
       <c r="D10" s="7">
-        <v>1441515</v>
+        <v>1441516</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -2925,10 +2937,10 @@
         <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>133</v>
@@ -2937,13 +2949,13 @@
         <v>137213</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>207</v>
@@ -2952,13 +2964,13 @@
         <v>212069</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,13 +2985,13 @@
         <v>24052</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -3042,10 +3054,10 @@
         <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -3054,13 +3066,13 @@
         <v>39821</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,7 +3084,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3116,7 +3128,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3128,13 +3140,13 @@
         <v>472826</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>356</v>
@@ -3143,13 +3155,13 @@
         <v>375290</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>808</v>
@@ -3158,13 +3170,13 @@
         <v>848116</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3191,13 @@
         <v>41906</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -3194,13 +3206,13 @@
         <v>44479</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -3209,13 +3221,13 @@
         <v>86385</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3242,13 @@
         <v>25960</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
@@ -3245,13 +3257,13 @@
         <v>38263</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>63</v>
@@ -3260,13 +3272,13 @@
         <v>64222</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3293,13 @@
         <v>2624</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -3296,13 +3308,13 @@
         <v>12372</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -3311,13 +3323,13 @@
         <v>14996</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3344,13 @@
         <v>8093</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -3347,13 +3359,13 @@
         <v>6008</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -3362,13 +3374,13 @@
         <v>14101</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3448,13 @@
         <v>2589335</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>2292</v>
@@ -3451,13 +3463,13 @@
         <v>2342128</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>4825</v>
@@ -3466,13 +3478,13 @@
         <v>4931463</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3499,13 @@
         <v>340744</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>445</v>
@@ -3502,13 +3514,13 @@
         <v>457059</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>784</v>
@@ -3517,13 +3529,13 @@
         <v>797803</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3550,13 @@
         <v>242053</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>404</v>
@@ -3553,13 +3565,13 @@
         <v>416118</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>646</v>
@@ -3568,13 +3580,13 @@
         <v>658172</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3601,13 @@
         <v>52519</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>92</v>
@@ -3604,13 +3616,13 @@
         <v>97013</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>143</v>
@@ -3619,13 +3631,13 @@
         <v>149532</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3652,13 @@
         <v>51891</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>64</v>
@@ -3655,13 +3667,13 @@
         <v>66880</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>113</v>
@@ -3670,13 +3682,13 @@
         <v>118771</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>90</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,7 +3700,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3732,7 +3744,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3751,7 +3763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A63D7EE-1D36-4C2F-B560-156955FACF4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CED0D0B-579F-43AC-BBA8-EA9A33CEBFBC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3768,7 +3780,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3875,13 +3887,13 @@
         <v>572760</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="H4" s="7">
         <v>567</v>
@@ -3890,13 +3902,13 @@
         <v>610376</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
         <v>1105</v>
@@ -3905,13 +3917,13 @@
         <v>1183136</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,13 +3938,13 @@
         <v>185843</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H5" s="7">
         <v>247</v>
@@ -3941,13 +3953,13 @@
         <v>264109</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>419</v>
@@ -3956,13 +3968,13 @@
         <v>449952</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3989,13 @@
         <v>145070</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H6" s="7">
         <v>245</v>
@@ -3992,13 +4004,13 @@
         <v>260754</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M6" s="7">
         <v>379</v>
@@ -4007,13 +4019,13 @@
         <v>405824</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4040,13 @@
         <v>39496</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
         <v>112</v>
@@ -4043,13 +4055,13 @@
         <v>119225</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>148</v>
@@ -4058,13 +4070,13 @@
         <v>158721</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4091,13 @@
         <v>30509</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
         <v>75</v>
@@ -4094,13 +4106,13 @@
         <v>82234</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M8" s="7">
         <v>102</v>
@@ -4109,13 +4121,13 @@
         <v>112743</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4195,13 @@
         <v>1583700</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H10" s="7">
         <v>1177</v>
@@ -4198,13 +4210,13 @@
         <v>1262211</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>2672</v>
@@ -4213,13 +4225,13 @@
         <v>2845910</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4246,13 @@
         <v>178900</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H11" s="7">
         <v>192</v>
@@ -4249,13 +4261,13 @@
         <v>209486</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M11" s="7">
         <v>365</v>
@@ -4264,13 +4276,13 @@
         <v>388387</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4297,13 @@
         <v>123665</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H12" s="7">
         <v>162</v>
@@ -4300,13 +4312,13 @@
         <v>173316</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M12" s="7">
         <v>277</v>
@@ -4315,13 +4327,13 @@
         <v>296981</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>265</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4348,13 @@
         <v>56883</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -4351,13 +4363,13 @@
         <v>74842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>123</v>
@@ -4366,13 +4378,13 @@
         <v>131725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4399,13 @@
         <v>18831</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -4402,13 +4414,13 @@
         <v>35994</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>50</v>
@@ -4417,13 +4429,13 @@
         <v>54825</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,7 +4491,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4491,13 +4503,13 @@
         <v>411224</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H16" s="7">
         <v>332</v>
@@ -4506,13 +4518,13 @@
         <v>369559</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
         <v>709</v>
@@ -4521,13 +4533,13 @@
         <v>780783</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,13 +4554,13 @@
         <v>35397</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -4557,13 +4569,13 @@
         <v>46439</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -4572,13 +4584,13 @@
         <v>81837</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4605,13 @@
         <v>21339</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>296</v>
+        <v>139</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -4608,13 +4620,13 @@
         <v>26477</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -4623,13 +4635,13 @@
         <v>47816</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>302</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4656,13 @@
         <v>12287</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>139</v>
+        <v>300</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -4659,13 +4671,13 @@
         <v>11287</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
@@ -4674,13 +4686,13 @@
         <v>23574</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4707,13 @@
         <v>934</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4710,13 +4722,13 @@
         <v>4868</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4725,13 +4737,13 @@
         <v>5802</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4811,13 @@
         <v>2567684</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H22" s="7">
         <v>2076</v>
@@ -4814,13 +4826,13 @@
         <v>2242146</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M22" s="7">
         <v>4486</v>
@@ -4829,13 +4841,13 @@
         <v>4809830</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4862,13 @@
         <v>400140</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>326</v>
+        <v>245</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H23" s="7">
         <v>482</v>
@@ -4865,13 +4877,13 @@
         <v>520035</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M23" s="7">
         <v>860</v>
@@ -4880,13 +4892,13 @@
         <v>920175</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4913,13 @@
         <v>290075</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H24" s="7">
         <v>430</v>
@@ -4916,13 +4928,13 @@
         <v>460547</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M24" s="7">
         <v>695</v>
@@ -4931,13 +4943,13 @@
         <v>750622</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4964,13 @@
         <v>108666</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>269</v>
+        <v>339</v>
       </c>
       <c r="H25" s="7">
         <v>193</v>
@@ -4967,13 +4979,13 @@
         <v>205354</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>346</v>
+        <v>121</v>
       </c>
       <c r="M25" s="7">
         <v>292</v>
@@ -4982,13 +4994,13 @@
         <v>314020</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>49</v>
+        <v>342</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>53</v>
+        <v>343</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +5015,13 @@
         <v>50275</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>52</v>
+        <v>345</v>
       </c>
       <c r="H26" s="7">
         <v>110</v>
@@ -5018,13 +5030,13 @@
         <v>123096</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M26" s="7">
         <v>157</v>
@@ -5033,13 +5045,13 @@
         <v>173371</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>352</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,7 +5107,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5114,7 +5126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32470ACF-8BE0-4FAD-9A2F-820579488DBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71185FAD-CDDE-4B99-896C-B1D0A0FFEA81}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5131,7 +5143,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5238,13 +5250,13 @@
         <v>507755</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H4" s="7">
         <v>491</v>
@@ -5253,13 +5265,13 @@
         <v>535931</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M4" s="7">
         <v>999</v>
@@ -5268,13 +5280,13 @@
         <v>1043686</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5301,13 @@
         <v>104797</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H5" s="7">
         <v>144</v>
@@ -5304,13 +5316,13 @@
         <v>161214</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M5" s="7">
         <v>252</v>
@@ -5319,13 +5331,13 @@
         <v>266011</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5352,13 @@
         <v>96550</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>372</v>
+        <v>166</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>252</v>
+        <v>368</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H6" s="7">
         <v>164</v>
@@ -5355,13 +5367,13 @@
         <v>189553</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M6" s="7">
         <v>262</v>
@@ -5370,13 +5382,13 @@
         <v>286103</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5403,13 @@
         <v>27423</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>304</v>
+        <v>377</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>381</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>63</v>
@@ -5406,13 +5418,13 @@
         <v>72345</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="M7" s="7">
         <v>91</v>
@@ -5421,13 +5433,13 @@
         <v>99768</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>384</v>
+        <v>87</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5454,13 @@
         <v>17822</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>102</v>
+        <v>383</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>387</v>
+        <v>270</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>273</v>
+        <v>384</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -5457,13 +5469,13 @@
         <v>33500</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M8" s="7">
         <v>48</v>
@@ -5472,13 +5484,13 @@
         <v>51322</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>274</v>
+        <v>388</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5558,13 @@
         <v>1685184</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>1437</v>
@@ -5561,13 +5573,13 @@
         <v>1477362</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M10" s="7">
         <v>3023</v>
@@ -5576,13 +5588,13 @@
         <v>3162546</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,10 +5609,10 @@
         <v>247413</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>402</v>
@@ -5630,10 +5642,10 @@
         <v>406</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>337</v>
+        <v>407</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>332</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5660,13 @@
         <v>83648</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H12" s="7">
         <v>146</v>
@@ -5663,13 +5675,13 @@
         <v>164150</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M12" s="7">
         <v>225</v>
@@ -5678,13 +5690,13 @@
         <v>247798</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>414</v>
+        <v>263</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5711,13 @@
         <v>29754</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>99</v>
+        <v>417</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>415</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>416</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -5714,13 +5726,13 @@
         <v>43939</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -5729,13 +5741,13 @@
         <v>73693</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>421</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,13 +5762,13 @@
         <v>29412</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -5765,13 +5777,13 @@
         <v>26034</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>425</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>425</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>50</v>
@@ -5780,13 +5792,13 @@
         <v>55446</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>428</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,7 +5854,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5959,10 +5971,10 @@
         <v>447</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -5971,7 +5983,7 @@
         <v>31721</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>449</v>
+        <v>224</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>450</v>
@@ -5992,7 +6004,7 @@
         <v>453</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>454</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,13 +6019,13 @@
         <v>11193</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -6022,13 +6034,13 @@
         <v>12813</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>456</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>457</v>
+        <v>143</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
@@ -6037,13 +6049,13 @@
         <v>24006</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>459</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,13 +6070,13 @@
         <v>1976</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -6073,13 +6085,13 @@
         <v>6020</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>348</v>
+        <v>272</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -6088,13 +6100,13 @@
         <v>7996</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,13 +6174,13 @@
         <v>2644283</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H22" s="7">
         <v>2356</v>
@@ -6177,13 +6189,13 @@
         <v>2458159</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M22" s="7">
         <v>4865</v>
@@ -6192,13 +6204,13 @@
         <v>5102442</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,13 +6225,13 @@
         <v>414829</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H23" s="7">
         <v>454</v>
@@ -6228,13 +6240,13 @@
         <v>488829</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="M23" s="7">
         <v>853</v>
@@ -6243,13 +6255,13 @@
         <v>903658</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,13 +6276,13 @@
         <v>199952</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>230</v>
+        <v>480</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H24" s="7">
         <v>340</v>
@@ -6279,13 +6291,13 @@
         <v>385424</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>261</v>
+        <v>484</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M24" s="7">
         <v>534</v>
@@ -6294,13 +6306,13 @@
         <v>585375</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,10 +6330,10 @@
         <v>96</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>491</v>
+        <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>492</v>
+        <v>135</v>
       </c>
       <c r="H25" s="7">
         <v>114</v>
@@ -6330,13 +6342,13 @@
         <v>129097</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>493</v>
+        <v>43</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="M25" s="7">
         <v>178</v>
@@ -6345,13 +6357,13 @@
         <v>197467</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6378,13 @@
         <v>49211</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>348</v>
+        <v>494</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>499</v>
+        <v>55</v>
       </c>
       <c r="H26" s="7">
         <v>57</v>
@@ -6381,13 +6393,13 @@
         <v>65553</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>500</v>
+        <v>52</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M26" s="7">
         <v>105</v>
@@ -6396,13 +6408,13 @@
         <v>114764</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>42</v>
+        <v>496</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>426</v>
+        <v>497</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>502</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6458,7 +6470,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6477,7 +6489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415DE19B-4D08-4884-8BE0-3387C03C82F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DFE6C3-3E0E-4B7B-8807-8230F4741DA8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6494,7 +6506,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6601,13 +6613,13 @@
         <v>335081</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>500</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H4" s="7">
         <v>673</v>
@@ -6616,13 +6628,13 @@
         <v>396710</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M4" s="7">
         <v>1098</v>
@@ -6631,13 +6643,13 @@
         <v>731791</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,13 +6664,13 @@
         <v>63246</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H5" s="7">
         <v>204</v>
@@ -6667,13 +6679,13 @@
         <v>118904</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>516</v>
+        <v>404</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="M5" s="7">
         <v>286</v>
@@ -6682,13 +6694,13 @@
         <v>182149</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6715,13 @@
         <v>74721</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -6718,13 +6730,13 @@
         <v>167737</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="M6" s="7">
         <v>370</v>
@@ -6733,13 +6745,13 @@
         <v>242458</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6766,13 @@
         <v>42697</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>124</v>
+        <v>527</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
@@ -6769,13 +6781,13 @@
         <v>80722</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M7" s="7">
         <v>197</v>
@@ -6784,13 +6796,13 @@
         <v>123419</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,13 +6817,13 @@
         <v>24961</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>408</v>
+        <v>535</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H8" s="7">
         <v>123</v>
@@ -6820,13 +6832,13 @@
         <v>68566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="M8" s="7">
         <v>159</v>
@@ -6835,13 +6847,13 @@
         <v>93527</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>541</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>544</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6909,13 +6921,13 @@
         <v>1725026</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H10" s="7">
         <v>2077</v>
@@ -6924,13 +6936,13 @@
         <v>1580520</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="M10" s="7">
         <v>3615</v>
@@ -6939,13 +6951,13 @@
         <v>3305546</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>474</v>
+        <v>548</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6960,13 +6972,13 @@
         <v>189832</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="H11" s="7">
         <v>314</v>
@@ -6975,13 +6987,13 @@
         <v>320141</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M11" s="7">
         <v>505</v>
@@ -6990,13 +7002,13 @@
         <v>509973</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7011,13 +7023,13 @@
         <v>160669</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>290</v>
+        <v>559</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H12" s="7">
         <v>368</v>
@@ -7026,13 +7038,13 @@
         <v>241986</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>266</v>
+        <v>562</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M12" s="7">
         <v>540</v>
@@ -7041,13 +7053,13 @@
         <v>402656</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>176</v>
+        <v>564</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>564</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,7 +7074,7 @@
         <v>51519</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>565</v>
+        <v>93</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>566</v>
@@ -7077,13 +7089,13 @@
         <v>68807</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>569</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>160</v>
@@ -7092,13 +7104,13 @@
         <v>120326</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,10 +7125,10 @@
         <v>32862</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>571</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>427</v>
+        <v>572</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>573</v>
@@ -7134,7 +7146,7 @@
         <v>575</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="M14" s="7">
         <v>89</v>
@@ -7149,7 +7161,7 @@
         <v>577</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7205,7 +7217,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7232,13 +7244,13 @@
         <v>556366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>249</v>
+        <v>581</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M16" s="7">
         <v>1332</v>
@@ -7247,13 +7259,13 @@
         <v>1116210</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,13 +7280,13 @@
         <v>42139</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>385</v>
+        <v>588</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>262</v>
+        <v>589</v>
       </c>
       <c r="H17" s="7">
         <v>105</v>
@@ -7283,13 +7295,13 @@
         <v>74845</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>588</v>
+        <v>445</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>169</v>
+        <v>591</v>
       </c>
       <c r="M17" s="7">
         <v>154</v>
@@ -7298,13 +7310,13 @@
         <v>116984</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,13 +7331,13 @@
         <v>44885</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>594</v>
+        <v>380</v>
       </c>
       <c r="H18" s="7">
         <v>94</v>
@@ -7334,13 +7346,13 @@
         <v>61645</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M18" s="7">
         <v>136</v>
@@ -7349,13 +7361,13 @@
         <v>106530</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,13 +7382,13 @@
         <v>10416</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>601</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -7385,13 +7397,13 @@
         <v>12156</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -7400,13 +7412,13 @@
         <v>22572</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>311</v>
+        <v>606</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>102</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,13 +7433,13 @@
         <v>15755</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>456</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>605</v>
+        <v>457</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -7436,13 +7448,13 @@
         <v>8874</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>609</v>
+        <v>58</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -7451,7 +7463,7 @@
         <v>24629</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>575</v>
@@ -7525,13 +7537,13 @@
         <v>2619951</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>433</v>
+        <v>611</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H22" s="7">
         <v>3521</v>
@@ -7540,13 +7552,13 @@
         <v>2533597</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M22" s="7">
         <v>6045</v>
@@ -7555,13 +7567,13 @@
         <v>5153547</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,13 +7588,13 @@
         <v>295217</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H23" s="7">
         <v>623</v>
@@ -7591,13 +7603,13 @@
         <v>513890</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>177</v>
+        <v>623</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="M23" s="7">
         <v>945</v>
@@ -7606,13 +7618,13 @@
         <v>809107</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7627,13 +7639,13 @@
         <v>280276</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>171</v>
+        <v>627</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>87</v>
+        <v>286</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="H24" s="7">
         <v>739</v>
@@ -7642,13 +7654,13 @@
         <v>471368</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="M24" s="7">
         <v>1046</v>
@@ -7657,13 +7669,13 @@
         <v>751644</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7678,13 +7690,13 @@
         <v>104632</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="H25" s="7">
         <v>266</v>
@@ -7693,13 +7705,13 @@
         <v>161685</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>636</v>
+        <v>387</v>
       </c>
       <c r="M25" s="7">
         <v>388</v>
@@ -7708,13 +7720,13 @@
         <v>266317</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7729,13 +7741,13 @@
         <v>73578</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H26" s="7">
         <v>194</v>
@@ -7744,13 +7756,13 @@
         <v>113854</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>419</v>
+        <v>645</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>492</v>
+        <v>646</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="M26" s="7">
         <v>280</v>
@@ -7762,10 +7774,10 @@
         <v>610</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7821,7 +7833,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3BF2EBC-757B-4E96-9778-CC16F4A33988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E23B76D4-702F-4159-856A-BECD49630F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B7E4742-A732-47D2-A12D-2D9C6B025C19}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B1D8B87B-377C-466C-803B-01C40F4E5E7D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="658">
   <si>
     <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>65,42%</t>
   </si>
   <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
   </si>
   <si>
     <t>55,91%</t>
   </si>
   <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
   </si>
   <si>
     <t>60,09%</t>
   </si>
   <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
   </si>
   <si>
     <t>Sólo alguna vez</t>
@@ -107,28 +107,28 @@
     <t>15,54%</t>
   </si>
   <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>18,65%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>17,28%</t>
   </si>
   <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
   </si>
   <si>
     <t>Algunas Veces</t>
@@ -137,28 +137,28 @@
     <t>13,69%</t>
   </si>
   <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
   </si>
   <si>
     <t>18,3%</t>
   </si>
   <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>Casi Siempre</t>
@@ -167,1828 +167,1852 @@
     <t>2,5%</t>
   </si>
   <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
     <t>1,58%</t>
   </si>
   <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2016 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>2,84%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2016 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>2,26%</t>
   </si>
   <si>
     <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
   </si>
 </sst>
 </file>
@@ -2400,7 +2424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DE0E42-7627-4F92-A4CF-D208C69E52BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27595DF-4ABE-4E06-A0A7-8ABB756E8672}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2829,7 +2853,7 @@
         <v>1398</v>
       </c>
       <c r="D10" s="7">
-        <v>1441516</v>
+        <v>1441515</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -2934,13 +2958,13 @@
         <v>74856</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>133</v>
@@ -2949,13 +2973,13 @@
         <v>137213</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>207</v>
@@ -2964,13 +2988,13 @@
         <v>212069</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,13 +3009,13 @@
         <v>24052</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -3054,10 +3078,10 @@
         <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -3066,13 +3090,13 @@
         <v>39821</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,7 +3108,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3128,7 +3152,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3140,13 +3164,13 @@
         <v>472826</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>356</v>
@@ -3155,13 +3179,13 @@
         <v>375290</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>808</v>
@@ -3170,13 +3194,13 @@
         <v>848116</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3215,13 @@
         <v>41906</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -3206,13 +3230,13 @@
         <v>44479</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -3221,13 +3245,13 @@
         <v>86385</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3266,13 @@
         <v>25960</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
@@ -3257,13 +3281,13 @@
         <v>38263</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>63</v>
@@ -3272,13 +3296,13 @@
         <v>64222</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3317,13 @@
         <v>2624</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -3308,13 +3332,13 @@
         <v>12372</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -3323,13 +3347,13 @@
         <v>14996</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3368,13 @@
         <v>8093</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -3359,13 +3383,13 @@
         <v>6008</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -3374,13 +3398,13 @@
         <v>14101</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3472,13 @@
         <v>2589335</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>2292</v>
@@ -3463,28 +3487,28 @@
         <v>2342128</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>4825</v>
       </c>
       <c r="N22" s="7">
-        <v>4931463</v>
+        <v>4931462</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3523,13 @@
         <v>340744</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>445</v>
@@ -3514,13 +3538,13 @@
         <v>457059</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>784</v>
@@ -3529,13 +3553,13 @@
         <v>797803</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3574,13 @@
         <v>242053</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>404</v>
@@ -3565,13 +3589,13 @@
         <v>416118</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>646</v>
@@ -3580,13 +3604,13 @@
         <v>658172</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3625,13 @@
         <v>52519</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>92</v>
@@ -3616,13 +3640,13 @@
         <v>97013</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="M25" s="7">
         <v>143</v>
@@ -3631,13 +3655,13 @@
         <v>149532</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3676,13 @@
         <v>51891</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>64</v>
@@ -3667,13 +3691,13 @@
         <v>66880</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>113</v>
@@ -3682,13 +3706,13 @@
         <v>118771</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,7 +3724,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3730,7 +3754,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3744,7 +3768,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3763,7 +3787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CED0D0B-579F-43AC-BBA8-EA9A33CEBFBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CFE63E-91DE-4588-97D4-DC8E278FFB2E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3780,7 +3804,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3887,13 +3911,13 @@
         <v>572760</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
         <v>567</v>
@@ -3902,13 +3926,13 @@
         <v>610376</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>1105</v>
@@ -3917,13 +3941,13 @@
         <v>1183136</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,13 +3962,13 @@
         <v>185843</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>247</v>
@@ -3953,13 +3977,13 @@
         <v>264109</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>419</v>
@@ -3968,13 +3992,13 @@
         <v>449952</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +4013,13 @@
         <v>145070</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H6" s="7">
         <v>245</v>
@@ -4004,13 +4028,13 @@
         <v>260754</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>379</v>
@@ -4019,13 +4043,13 @@
         <v>405824</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4064,13 @@
         <v>39496</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>112</v>
@@ -4055,13 +4079,13 @@
         <v>119225</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>148</v>
@@ -4070,13 +4094,13 @@
         <v>158721</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4115,13 @@
         <v>30509</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>75</v>
@@ -4106,13 +4130,13 @@
         <v>82234</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>102</v>
@@ -4121,13 +4145,13 @@
         <v>112743</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4219,13 @@
         <v>1583700</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>1177</v>
@@ -4210,13 +4234,13 @@
         <v>1262211</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>2672</v>
@@ -4225,13 +4249,13 @@
         <v>2845910</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4270,13 @@
         <v>178900</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H11" s="7">
         <v>192</v>
@@ -4261,13 +4285,13 @@
         <v>209486</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M11" s="7">
         <v>365</v>
@@ -4276,13 +4300,13 @@
         <v>388387</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4321,13 @@
         <v>123665</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H12" s="7">
         <v>162</v>
@@ -4312,13 +4336,13 @@
         <v>173316</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M12" s="7">
         <v>277</v>
@@ -4327,13 +4351,13 @@
         <v>296981</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>263</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4372,13 @@
         <v>56883</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>260</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>266</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -4363,13 +4387,13 @@
         <v>74842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>123</v>
@@ -4378,13 +4402,13 @@
         <v>131725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4423,13 @@
         <v>18831</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -4414,13 +4438,13 @@
         <v>35994</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7">
         <v>50</v>
@@ -4429,13 +4453,13 @@
         <v>54825</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,7 +4515,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4503,13 +4527,13 @@
         <v>411224</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>332</v>
@@ -4518,13 +4542,13 @@
         <v>369559</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>709</v>
@@ -4533,13 +4557,13 @@
         <v>780783</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4578,13 @@
         <v>35397</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -4569,13 +4593,13 @@
         <v>46439</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -4584,13 +4608,13 @@
         <v>81837</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4629,13 @@
         <v>21339</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>139</v>
+        <v>298</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -4620,13 +4644,13 @@
         <v>26477</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -4635,13 +4659,13 @@
         <v>47816</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,13 +4680,13 @@
         <v>12287</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -4671,13 +4695,13 @@
         <v>11287</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>302</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
@@ -4686,13 +4710,13 @@
         <v>23574</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>185</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4731,13 @@
         <v>934</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4722,13 +4746,13 @@
         <v>4868</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>92</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4737,13 +4761,13 @@
         <v>5802</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>311</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4835,13 @@
         <v>2567684</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>241</v>
+        <v>319</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="H22" s="7">
         <v>2076</v>
@@ -4826,13 +4850,13 @@
         <v>2242146</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="M22" s="7">
         <v>4486</v>
@@ -4841,13 +4865,13 @@
         <v>4809830</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4886,13 @@
         <v>400140</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="H23" s="7">
         <v>482</v>
@@ -4877,13 +4901,13 @@
         <v>520035</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M23" s="7">
         <v>860</v>
@@ -4892,13 +4916,13 @@
         <v>920175</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4937,13 @@
         <v>290075</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="H24" s="7">
         <v>430</v>
@@ -4928,13 +4952,13 @@
         <v>460547</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="M24" s="7">
         <v>695</v>
@@ -4943,13 +4967,13 @@
         <v>750622</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,13 +4988,13 @@
         <v>108666</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="H25" s="7">
         <v>193</v>
@@ -4979,13 +5003,13 @@
         <v>205354</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>121</v>
+        <v>350</v>
       </c>
       <c r="M25" s="7">
         <v>292</v>
@@ -4994,13 +5018,13 @@
         <v>314020</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +5039,13 @@
         <v>50275</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="H26" s="7">
         <v>110</v>
@@ -5030,13 +5054,13 @@
         <v>123096</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>346</v>
+        <v>80</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>271</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>157</v>
@@ -5045,13 +5069,13 @@
         <v>173371</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>348</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,7 +5131,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -5126,7 +5150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71185FAD-CDDE-4B99-896C-B1D0A0FFEA81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04D90E7-29C9-49A5-9BAB-051079B3E2EF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5143,7 +5167,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5250,13 +5274,13 @@
         <v>507755</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="H4" s="7">
         <v>491</v>
@@ -5265,13 +5289,13 @@
         <v>535931</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="M4" s="7">
         <v>999</v>
@@ -5280,13 +5304,13 @@
         <v>1043686</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,13 +5325,13 @@
         <v>104797</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="H5" s="7">
         <v>144</v>
@@ -5316,13 +5340,13 @@
         <v>161214</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>362</v>
+        <v>35</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="M5" s="7">
         <v>252</v>
@@ -5331,13 +5355,13 @@
         <v>266011</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,13 +5376,13 @@
         <v>96550</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>166</v>
+        <v>376</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="H6" s="7">
         <v>164</v>
@@ -5367,13 +5391,13 @@
         <v>189553</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="M6" s="7">
         <v>262</v>
@@ -5382,13 +5406,13 @@
         <v>286103</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,13 +5427,13 @@
         <v>27423</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>377</v>
+        <v>187</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>386</v>
       </c>
       <c r="H7" s="7">
         <v>63</v>
@@ -5418,13 +5442,13 @@
         <v>72345</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>379</v>
+        <v>129</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="M7" s="7">
         <v>91</v>
@@ -5433,13 +5457,13 @@
         <v>99768</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>87</v>
+        <v>389</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5478,13 @@
         <v>17822</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>270</v>
+        <v>393</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -5469,13 +5493,13 @@
         <v>33500</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>386</v>
+        <v>149</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="M8" s="7">
         <v>48</v>
@@ -5484,13 +5508,13 @@
         <v>51322</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,13 +5582,13 @@
         <v>1685184</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="H10" s="7">
         <v>1437</v>
@@ -5573,13 +5597,13 @@
         <v>1477362</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="M10" s="7">
         <v>3023</v>
@@ -5588,13 +5612,13 @@
         <v>3162546</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5633,13 @@
         <v>247413</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>401</v>
+        <v>225</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="H11" s="7">
         <v>260</v>
@@ -5624,13 +5648,13 @@
         <v>275762</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="M11" s="7">
         <v>494</v>
@@ -5639,13 +5663,13 @@
         <v>523176</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5684,13 @@
         <v>83648</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="H12" s="7">
         <v>146</v>
@@ -5675,13 +5699,13 @@
         <v>164150</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="M12" s="7">
         <v>225</v>
@@ -5690,13 +5714,13 @@
         <v>247798</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>263</v>
+        <v>423</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5735,13 @@
         <v>29754</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>417</v>
+        <v>306</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>425</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -5726,13 +5750,13 @@
         <v>43939</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>419</v>
+        <v>100</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>420</v>
+        <v>316</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -5741,13 +5765,13 @@
         <v>73693</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +5786,13 @@
         <v>29412</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -5777,13 +5801,13 @@
         <v>26034</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>433</v>
       </c>
       <c r="M14" s="7">
         <v>50</v>
@@ -5792,13 +5816,13 @@
         <v>55446</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>428</v>
+        <v>313</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>134</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,7 +5878,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5866,13 +5890,13 @@
         <v>451344</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="H16" s="7">
         <v>428</v>
@@ -5881,13 +5905,13 @@
         <v>444866</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="M16" s="7">
         <v>843</v>
@@ -5896,13 +5920,13 @@
         <v>896211</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5917,13 +5941,13 @@
         <v>62619</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -5932,13 +5956,13 @@
         <v>51852</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -5947,13 +5971,13 @@
         <v>114472</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,13 +5992,13 @@
         <v>19754</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -5983,13 +6007,13 @@
         <v>31721</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>224</v>
+        <v>457</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>450</v>
+        <v>236</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -5998,13 +6022,13 @@
         <v>51474</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,13 +6043,13 @@
         <v>11193</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>461</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>453</v>
+        <v>56</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -6034,13 +6058,13 @@
         <v>12813</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>143</v>
+        <v>462</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>454</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
@@ -6049,13 +6073,13 @@
         <v>24006</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>389</v>
+        <v>463</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>464</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,13 +6094,13 @@
         <v>1976</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -6085,13 +6109,13 @@
         <v>6020</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>41</v>
+        <v>469</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -6100,13 +6124,13 @@
         <v>7996</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,13 +6198,13 @@
         <v>2644283</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="H22" s="7">
         <v>2356</v>
@@ -6189,28 +6213,28 @@
         <v>2458159</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="M22" s="7">
         <v>4865</v>
       </c>
       <c r="N22" s="7">
-        <v>5102442</v>
+        <v>5102443</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,13 +6249,13 @@
         <v>414829</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="H23" s="7">
         <v>454</v>
@@ -6240,13 +6264,13 @@
         <v>488829</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="M23" s="7">
         <v>853</v>
@@ -6255,13 +6279,13 @@
         <v>903658</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,13 +6300,13 @@
         <v>199952</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="H24" s="7">
         <v>340</v>
@@ -6291,13 +6315,13 @@
         <v>385424</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="M24" s="7">
         <v>534</v>
@@ -6306,13 +6330,13 @@
         <v>585375</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,13 +6351,13 @@
         <v>68370</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>96</v>
+        <v>500</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>501</v>
       </c>
       <c r="H25" s="7">
         <v>114</v>
@@ -6342,13 +6366,13 @@
         <v>129097</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>43</v>
+        <v>502</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>489</v>
+        <v>126</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="M25" s="7">
         <v>178</v>
@@ -6357,13 +6381,13 @@
         <v>197467</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>492</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,13 +6402,13 @@
         <v>49211</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>55</v>
+        <v>279</v>
       </c>
       <c r="H26" s="7">
         <v>57</v>
@@ -6393,13 +6417,13 @@
         <v>65553</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>52</v>
+        <v>507</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>417</v>
+        <v>88</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="M26" s="7">
         <v>105</v>
@@ -6408,13 +6432,13 @@
         <v>114764</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>497</v>
+        <v>434</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>96</v>
+        <v>510</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,7 +6480,7 @@
         <v>6535</v>
       </c>
       <c r="N27" s="7">
-        <v>6903707</v>
+        <v>6903708</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -6470,7 +6494,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -6489,7 +6513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DFE6C3-3E0E-4B7B-8807-8230F4741DA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF703B5-89FD-4883-B16F-9FA7C0A78AFC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6506,7 +6530,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6613,13 +6637,13 @@
         <v>335081</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="H4" s="7">
         <v>673</v>
@@ -6628,13 +6652,13 @@
         <v>396710</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="M4" s="7">
         <v>1098</v>
@@ -6643,13 +6667,13 @@
         <v>731791</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6664,13 +6688,13 @@
         <v>63246</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>509</v>
+        <v>77</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="H5" s="7">
         <v>204</v>
@@ -6679,13 +6703,13 @@
         <v>118904</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>404</v>
+        <v>524</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="M5" s="7">
         <v>286</v>
@@ -6694,13 +6718,13 @@
         <v>182149</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,13 +6739,13 @@
         <v>74721</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -6730,13 +6754,13 @@
         <v>167737</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="M6" s="7">
         <v>370</v>
@@ -6745,13 +6769,13 @@
         <v>242458</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6790,13 @@
         <v>42697</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
@@ -6781,13 +6805,13 @@
         <v>80722</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="M7" s="7">
         <v>197</v>
@@ -6796,13 +6820,13 @@
         <v>123419</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6817,13 +6841,13 @@
         <v>24961</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="H8" s="7">
         <v>123</v>
@@ -6832,13 +6856,13 @@
         <v>68566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>538</v>
+        <v>424</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="M8" s="7">
         <v>159</v>
@@ -6847,13 +6871,13 @@
         <v>93527</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>541</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>225</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6921,13 +6945,13 @@
         <v>1725026</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="H10" s="7">
         <v>2077</v>
@@ -6936,13 +6960,13 @@
         <v>1580520</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="M10" s="7">
         <v>3615</v>
@@ -6951,13 +6975,13 @@
         <v>3305546</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6972,13 +6996,13 @@
         <v>189832</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="H11" s="7">
         <v>314</v>
@@ -6987,13 +7011,13 @@
         <v>320141</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>567</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="M11" s="7">
         <v>505</v>
@@ -7002,13 +7026,13 @@
         <v>509973</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7023,13 +7047,13 @@
         <v>160669</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="H12" s="7">
         <v>368</v>
@@ -7038,13 +7062,13 @@
         <v>241986</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="M12" s="7">
         <v>540</v>
@@ -7053,13 +7077,13 @@
         <v>402656</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>564</v>
+        <v>174</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>122</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7074,13 +7098,13 @@
         <v>51519</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>93</v>
+        <v>579</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
@@ -7089,13 +7113,13 @@
         <v>68807</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>489</v>
+        <v>582</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>584</v>
       </c>
       <c r="M13" s="7">
         <v>160</v>
@@ -7104,13 +7128,13 @@
         <v>120326</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>422</v>
+        <v>586</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,13 +7149,13 @@
         <v>32862</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>573</v>
+        <v>463</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -7140,13 +7164,13 @@
         <v>36414</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>592</v>
       </c>
       <c r="M14" s="7">
         <v>89</v>
@@ -7155,13 +7179,13 @@
         <v>69276</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,7 +7227,7 @@
         <v>4909</v>
       </c>
       <c r="N15" s="7">
-        <v>4407777</v>
+        <v>4407776</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7217,7 +7241,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7229,13 +7253,13 @@
         <v>559843</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="H16" s="7">
         <v>771</v>
@@ -7244,13 +7268,13 @@
         <v>556366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>583</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>1332</v>
@@ -7259,13 +7283,13 @@
         <v>1116210</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7280,13 +7304,13 @@
         <v>42139</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="H17" s="7">
         <v>105</v>
@@ -7295,13 +7319,13 @@
         <v>74845</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>445</v>
+        <v>607</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>591</v>
+        <v>376</v>
       </c>
       <c r="M17" s="7">
         <v>154</v>
@@ -7310,13 +7334,13 @@
         <v>116984</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,13 +7355,13 @@
         <v>44885</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>380</v>
+        <v>612</v>
       </c>
       <c r="H18" s="7">
         <v>94</v>
@@ -7346,13 +7370,13 @@
         <v>61645</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="M18" s="7">
         <v>136</v>
@@ -7361,13 +7385,13 @@
         <v>106530</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>600</v>
+        <v>256</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>601</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,13 +7406,13 @@
         <v>10416</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>569</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -7397,13 +7421,13 @@
         <v>12156</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>569</v>
+        <v>619</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -7412,13 +7436,13 @@
         <v>22572</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>606</v>
+        <v>462</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>383</v>
+        <v>621</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,13 +7457,13 @@
         <v>15755</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>457</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -7448,13 +7472,13 @@
         <v>8874</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>608</v>
+        <v>467</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>58</v>
+        <v>500</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -7463,13 +7487,13 @@
         <v>24629</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>575</v>
+        <v>624</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>610</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7537,13 +7561,13 @@
         <v>2619951</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="H22" s="7">
         <v>3521</v>
@@ -7552,13 +7576,13 @@
         <v>2533597</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>629</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="M22" s="7">
         <v>6045</v>
@@ -7567,13 +7591,13 @@
         <v>5153547</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7588,13 +7612,13 @@
         <v>295217</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>621</v>
+        <v>495</v>
       </c>
       <c r="H23" s="7">
         <v>623</v>
@@ -7603,13 +7627,13 @@
         <v>513890</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="M23" s="7">
         <v>945</v>
@@ -7618,13 +7642,13 @@
         <v>809107</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>362</v>
+        <v>641</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7639,13 +7663,13 @@
         <v>280276</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>286</v>
+        <v>643</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="H24" s="7">
         <v>739</v>
@@ -7654,13 +7678,13 @@
         <v>471368</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>629</v>
+        <v>412</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="M24" s="7">
         <v>1046</v>
@@ -7669,13 +7693,13 @@
         <v>751644</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>632</v>
+        <v>540</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>633</v>
+        <v>541</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7690,13 +7714,13 @@
         <v>104632</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>636</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>637</v>
+        <v>56</v>
       </c>
       <c r="H25" s="7">
         <v>266</v>
@@ -7705,13 +7729,13 @@
         <v>161685</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>387</v>
+        <v>649</v>
       </c>
       <c r="M25" s="7">
         <v>388</v>
@@ -7720,13 +7744,13 @@
         <v>266317</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7741,13 +7765,13 @@
         <v>73578</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>642</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="H26" s="7">
         <v>194</v>
@@ -7756,13 +7780,13 @@
         <v>113854</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>645</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>647</v>
+        <v>80</v>
       </c>
       <c r="M26" s="7">
         <v>280</v>
@@ -7771,13 +7795,13 @@
         <v>187432</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>610</v>
+        <v>346</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7833,7 +7857,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E23B76D4-702F-4159-856A-BECD49630F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AA10B86-FA9F-48C5-9071-0883F7DCE027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B1D8B87B-377C-466C-803B-01C40F4E5E7D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E4BAE578-B00D-4478-B365-9AF5B0A772C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="638">
   <si>
     <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -1577,442 +1577,382 @@
     <t>Población según frecuencia de dificultad de sus actividades por problemas (fìsicos o emocionales) en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
   </si>
   <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
   </si>
 </sst>
 </file>
@@ -2424,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27595DF-4ABE-4E06-A0A7-8ABB756E8672}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FBE5C2-5417-4029-94F6-558FF411DD78}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2626,7 +2566,7 @@
         <v>403</v>
       </c>
       <c r="N5" s="7">
-        <v>405593</v>
+        <v>405592</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2830,7 +2770,7 @@
         <v>2329</v>
       </c>
       <c r="N9" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -2853,7 +2793,7 @@
         <v>1398</v>
       </c>
       <c r="D10" s="7">
-        <v>1441515</v>
+        <v>1441516</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -3108,7 +3048,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3484,7 +3424,7 @@
         <v>2292</v>
       </c>
       <c r="I22" s="7">
-        <v>2342128</v>
+        <v>2342127</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>153</v>
@@ -3499,7 +3439,7 @@
         <v>4825</v>
       </c>
       <c r="N22" s="7">
-        <v>4931462</v>
+        <v>4931463</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>156</v>
@@ -3724,7 +3664,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3739,7 +3679,7 @@
         <v>3297</v>
       </c>
       <c r="I27" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -3754,7 +3694,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3787,7 +3727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CFE63E-91DE-4588-97D4-DC8E278FFB2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C35C99-F774-4FB3-A34B-9123F2EECB2A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4554,7 +4494,7 @@
         <v>709</v>
       </c>
       <c r="N16" s="7">
-        <v>780783</v>
+        <v>780784</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>286</v>
@@ -4656,7 +4596,7 @@
         <v>39</v>
       </c>
       <c r="N18" s="7">
-        <v>47816</v>
+        <v>47817</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>303</v>
@@ -4809,7 +4749,7 @@
         <v>850</v>
       </c>
       <c r="N21" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -5150,7 +5090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04D90E7-29C9-49A5-9BAB-051079B3E2EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CB3909-F49E-4B58-9971-1C4101D33B1C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5594,7 +5534,7 @@
         <v>1437</v>
       </c>
       <c r="I10" s="7">
-        <v>1477362</v>
+        <v>1477361</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>403</v>
@@ -5849,7 +5789,7 @@
         <v>1907</v>
       </c>
       <c r="I15" s="7">
-        <v>1987246</v>
+        <v>1987245</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -6225,7 +6165,7 @@
         <v>4865</v>
       </c>
       <c r="N22" s="7">
-        <v>5102443</v>
+        <v>5102442</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>479</v>
@@ -6480,7 +6420,7 @@
         <v>6535</v>
       </c>
       <c r="N27" s="7">
-        <v>6903708</v>
+        <v>6903707</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -6513,7 +6453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF703B5-89FD-4883-B16F-9FA7C0A78AFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E004EE9B-BB70-4E3D-91CE-4ECA6BB14CE6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6634,7 +6574,7 @@
         <v>425</v>
       </c>
       <c r="D4" s="7">
-        <v>335081</v>
+        <v>321216</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>512</v>
@@ -6649,7 +6589,7 @@
         <v>673</v>
       </c>
       <c r="I4" s="7">
-        <v>396710</v>
+        <v>363315</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>515</v>
@@ -6664,7 +6604,7 @@
         <v>1098</v>
       </c>
       <c r="N4" s="7">
-        <v>731791</v>
+        <v>684531</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>518</v>
@@ -6685,28 +6625,28 @@
         <v>82</v>
       </c>
       <c r="D5" s="7">
-        <v>63246</v>
+        <v>59701</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>521</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>77</v>
+        <v>522</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H5" s="7">
         <v>204</v>
       </c>
       <c r="I5" s="7">
-        <v>118904</v>
+        <v>107611</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>524</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>525</v>
@@ -6715,16 +6655,16 @@
         <v>286</v>
       </c>
       <c r="N5" s="7">
-        <v>182149</v>
+        <v>167312</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,46 +6676,46 @@
         <v>93</v>
       </c>
       <c r="D6" s="7">
-        <v>74721</v>
+        <v>70333</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
       </c>
       <c r="I6" s="7">
-        <v>167737</v>
+        <v>148030</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="M6" s="7">
         <v>370</v>
       </c>
       <c r="N6" s="7">
-        <v>242458</v>
+        <v>218363</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,46 +6727,46 @@
         <v>54</v>
       </c>
       <c r="D7" s="7">
-        <v>42697</v>
+        <v>39241</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
       </c>
       <c r="I7" s="7">
-        <v>80722</v>
+        <v>71896</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="M7" s="7">
         <v>197</v>
       </c>
       <c r="N7" s="7">
-        <v>123419</v>
+        <v>111137</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,46 +6778,46 @@
         <v>36</v>
       </c>
       <c r="D8" s="7">
-        <v>24961</v>
+        <v>23576</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="H8" s="7">
         <v>123</v>
       </c>
       <c r="I8" s="7">
-        <v>68566</v>
+        <v>61567</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>550</v>
+        <v>71</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>424</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="M8" s="7">
         <v>159</v>
       </c>
       <c r="N8" s="7">
-        <v>93527</v>
+        <v>85143</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>552</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>549</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>553</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,7 +6829,7 @@
         <v>690</v>
       </c>
       <c r="D9" s="7">
-        <v>540706</v>
+        <v>514067</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -6904,7 +6844,7 @@
         <v>1420</v>
       </c>
       <c r="I9" s="7">
-        <v>832638</v>
+        <v>752419</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -6919,7 +6859,7 @@
         <v>2110</v>
       </c>
       <c r="N9" s="7">
-        <v>1373344</v>
+        <v>1266486</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -6942,46 +6882,46 @@
         <v>1538</v>
       </c>
       <c r="D10" s="7">
-        <v>1725026</v>
+        <v>1877552</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>555</v>
+        <v>401</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="H10" s="7">
         <v>2077</v>
       </c>
       <c r="I10" s="7">
-        <v>1580520</v>
+        <v>1522403</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>557</v>
+        <v>477</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="M10" s="7">
         <v>3615</v>
       </c>
       <c r="N10" s="7">
-        <v>3305546</v>
+        <v>3399955</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6993,46 +6933,46 @@
         <v>191</v>
       </c>
       <c r="D11" s="7">
-        <v>189832</v>
+        <v>178605</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="H11" s="7">
         <v>314</v>
       </c>
       <c r="I11" s="7">
-        <v>320141</v>
+        <v>396542</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="M11" s="7">
         <v>505</v>
       </c>
       <c r="N11" s="7">
-        <v>509973</v>
+        <v>575147</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,46 +6984,46 @@
         <v>172</v>
       </c>
       <c r="D12" s="7">
-        <v>160669</v>
+        <v>152459</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>572</v>
+        <v>350</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="H12" s="7">
         <v>368</v>
       </c>
       <c r="I12" s="7">
-        <v>241986</v>
+        <v>221205</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>342</v>
+        <v>173</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>576</v>
+        <v>445</v>
       </c>
       <c r="M12" s="7">
         <v>540</v>
       </c>
       <c r="N12" s="7">
-        <v>402656</v>
+        <v>373664</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>174</v>
+        <v>419</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,46 +7035,46 @@
         <v>55</v>
       </c>
       <c r="D13" s="7">
-        <v>51519</v>
+        <v>48377</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>579</v>
+        <v>90</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>580</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="H13" s="7">
         <v>105</v>
       </c>
       <c r="I13" s="7">
-        <v>68807</v>
+        <v>62131</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>583</v>
+        <v>276</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>584</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>160</v>
       </c>
       <c r="N13" s="7">
-        <v>120326</v>
+        <v>110508</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>586</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,46 +7086,46 @@
         <v>34</v>
       </c>
       <c r="D14" s="7">
-        <v>32862</v>
+        <v>31300</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>588</v>
+        <v>147</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>589</v>
+        <v>429</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>463</v>
+        <v>575</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
       </c>
       <c r="I14" s="7">
-        <v>36414</v>
+        <v>34060</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>592</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>89</v>
       </c>
       <c r="N14" s="7">
-        <v>69276</v>
+        <v>65360</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>594</v>
+        <v>506</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,7 +7137,7 @@
         <v>1990</v>
       </c>
       <c r="D15" s="7">
-        <v>2159908</v>
+        <v>2288293</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7212,7 +7152,7 @@
         <v>2919</v>
       </c>
       <c r="I15" s="7">
-        <v>2247868</v>
+        <v>2236342</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7227,7 +7167,7 @@
         <v>4909</v>
       </c>
       <c r="N15" s="7">
-        <v>4407776</v>
+        <v>4524635</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7250,46 +7190,46 @@
         <v>561</v>
       </c>
       <c r="D16" s="7">
-        <v>559843</v>
+        <v>538208</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>596</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="H16" s="7">
         <v>771</v>
       </c>
       <c r="I16" s="7">
-        <v>556366</v>
+        <v>516201</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>584</v>
       </c>
       <c r="M16" s="7">
         <v>1332</v>
       </c>
       <c r="N16" s="7">
-        <v>1116210</v>
+        <v>1054409</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>602</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,46 +7241,46 @@
         <v>49</v>
       </c>
       <c r="D17" s="7">
-        <v>42139</v>
+        <v>40126</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>605</v>
+        <v>336</v>
       </c>
       <c r="H17" s="7">
         <v>105</v>
       </c>
       <c r="I17" s="7">
-        <v>74845</v>
+        <v>68491</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
       <c r="M17" s="7">
         <v>154</v>
       </c>
       <c r="N17" s="7">
-        <v>116984</v>
+        <v>108617</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>609</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,46 +7292,46 @@
         <v>42</v>
       </c>
       <c r="D18" s="7">
-        <v>44885</v>
+        <v>43405</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="H18" s="7">
         <v>94</v>
       </c>
       <c r="I18" s="7">
-        <v>61645</v>
+        <v>56524</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>82</v>
+        <v>452</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>614</v>
+        <v>225</v>
       </c>
       <c r="M18" s="7">
         <v>136</v>
       </c>
       <c r="N18" s="7">
-        <v>106530</v>
+        <v>99929</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>256</v>
+        <v>599</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>247</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,46 +7343,46 @@
         <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>10416</v>
+        <v>9859</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>616</v>
+        <v>576</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>432</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
       </c>
       <c r="I19" s="7">
-        <v>12156</v>
+        <v>10971</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>617</v>
+        <v>509</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>618</v>
+        <v>313</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>619</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
       </c>
       <c r="N19" s="7">
-        <v>22572</v>
+        <v>20831</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>620</v>
+        <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>462</v>
+        <v>601</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>621</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7454,46 +7394,46 @@
         <v>16</v>
       </c>
       <c r="D20" s="7">
-        <v>15755</v>
+        <v>15025</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>602</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
       </c>
       <c r="I20" s="7">
-        <v>8874</v>
+        <v>8275</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>467</v>
+        <v>604</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>500</v>
+        <v>606</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
       </c>
       <c r="N20" s="7">
-        <v>24629</v>
+        <v>23300</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>188</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>305</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7505,7 +7445,7 @@
         <v>681</v>
       </c>
       <c r="D21" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7520,7 +7460,7 @@
         <v>1004</v>
       </c>
       <c r="I21" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7535,7 +7475,7 @@
         <v>1685</v>
       </c>
       <c r="N21" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7558,46 +7498,46 @@
         <v>2524</v>
       </c>
       <c r="D22" s="7">
-        <v>2619951</v>
+        <v>2736976</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="H22" s="7">
         <v>3521</v>
       </c>
       <c r="I22" s="7">
-        <v>2533597</v>
+        <v>2401919</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="M22" s="7">
         <v>6045</v>
       </c>
       <c r="N22" s="7">
-        <v>5153547</v>
+        <v>5138896</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,46 +7549,46 @@
         <v>322</v>
       </c>
       <c r="D23" s="7">
-        <v>295217</v>
+        <v>278433</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>495</v>
+        <v>619</v>
       </c>
       <c r="H23" s="7">
         <v>623</v>
       </c>
       <c r="I23" s="7">
-        <v>513890</v>
+        <v>572645</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>637</v>
+        <v>589</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="M23" s="7">
         <v>945</v>
       </c>
       <c r="N23" s="7">
-        <v>809107</v>
+        <v>851077</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>639</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7660,46 +7600,46 @@
         <v>307</v>
       </c>
       <c r="D24" s="7">
-        <v>280276</v>
+        <v>266197</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>644</v>
+        <v>446</v>
       </c>
       <c r="H24" s="7">
         <v>739</v>
       </c>
       <c r="I24" s="7">
-        <v>471368</v>
+        <v>425759</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>412</v>
+        <v>626</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="M24" s="7">
         <v>1046</v>
       </c>
       <c r="N24" s="7">
-        <v>751644</v>
+        <v>691956</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>540</v>
+        <v>629</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>541</v>
+        <v>630</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>646</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7711,46 +7651,46 @@
         <v>122</v>
       </c>
       <c r="D25" s="7">
-        <v>104632</v>
+        <v>97478</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>305</v>
+        <v>426</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>56</v>
+        <v>459</v>
       </c>
       <c r="H25" s="7">
         <v>266</v>
       </c>
       <c r="I25" s="7">
-        <v>161685</v>
+        <v>144998</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>267</v>
+        <v>632</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>648</v>
+        <v>465</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>649</v>
+        <v>545</v>
       </c>
       <c r="M25" s="7">
         <v>388</v>
       </c>
       <c r="N25" s="7">
-        <v>266317</v>
+        <v>242476</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>651</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7762,46 +7702,46 @@
         <v>86</v>
       </c>
       <c r="D26" s="7">
-        <v>73578</v>
+        <v>69900</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>455</v>
+        <v>635</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>653</v>
+        <v>310</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="H26" s="7">
         <v>194</v>
       </c>
       <c r="I26" s="7">
-        <v>113854</v>
+        <v>103903</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>316</v>
+        <v>143</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>655</v>
+        <v>428</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>80</v>
+        <v>637</v>
       </c>
       <c r="M26" s="7">
         <v>280</v>
       </c>
       <c r="N26" s="7">
-        <v>187432</v>
+        <v>173803</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>346</v>
+        <v>469</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>656</v>
+        <v>606</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>657</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7813,7 +7753,7 @@
         <v>3361</v>
       </c>
       <c r="D27" s="7">
-        <v>3373654</v>
+        <v>3448984</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7828,7 +7768,7 @@
         <v>5343</v>
       </c>
       <c r="I27" s="7">
-        <v>3794393</v>
+        <v>3649224</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7843,7 +7783,7 @@
         <v>8704</v>
       </c>
       <c r="N27" s="7">
-        <v>7168046</v>
+        <v>7098208</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
